--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>Skill5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NeedMoney</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,16 +56,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_1</t>
-  </si>
-  <si>
-    <t>Skill_2</t>
-  </si>
-  <si>
-    <t>skill1</t>
-  </si>
-  <si>
-    <t>skill2</t>
+    <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimaState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAtk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAtk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAtk3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalThump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -82,20 +105,50 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -104,11 +157,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -156,9 +215,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:E3"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H3" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:H3"/>
+  <tableColumns count="8">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
@@ -174,6 +233,9 @@
     <tableColumn id="5" uniqueName="NeedLevel" name="NeedLevel">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@NeedLevel" xmlDataType="integer"/>
     </tableColumn>
+    <tableColumn id="6" uniqueName="6" name="SkillType"/>
+    <tableColumn id="7" uniqueName="7" name="AnimaState"/>
+    <tableColumn id="8" uniqueName="8" name="ShowName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -442,21 +504,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,21 +532,30 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -489,27 +563,109 @@
       <c r="E2">
         <v>5</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E3">
         <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
     <t>skill1</t>
   </si>
   <si>
-    <t>Skill5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NeedMoney</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,23 +60,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NormalAtk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAtk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAtk3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalThump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ShowName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NormalAtk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalAtk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalAtk3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalThump</t>
+    <t>AtkDis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedTar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +188,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -215,9 +238,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:H3"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J3" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:J3"/>
+  <tableColumns count="10">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
@@ -235,7 +258,9 @@
     </tableColumn>
     <tableColumn id="6" uniqueName="6" name="SkillType"/>
     <tableColumn id="7" uniqueName="7" name="AnimaState"/>
-    <tableColumn id="8" uniqueName="8" name="ShowName"/>
+    <tableColumn id="8" uniqueName="8" name="AtkDis"/>
+    <tableColumn id="10" uniqueName="10" name="NeedTar"/>
+    <tableColumn id="9" uniqueName="9" name="ShowName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I8" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,10 +543,11 @@
     <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="8" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,30 +558,36 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -569,16 +601,22 @@
       <c r="G2">
         <v>60</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -592,16 +630,22 @@
       <c r="G3">
         <v>61</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -615,16 +659,22 @@
       <c r="G4">
         <v>62</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -638,15 +688,23 @@
       <c r="G5">
         <v>63</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D6">
         <v>300</v>
       </c>
@@ -658,6 +716,99 @@
       </c>
       <c r="G6">
         <v>100</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>101</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>102</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>103</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -60,22 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NormalAtk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalAtk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalAtk3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalThump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ShowName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,24 +68,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NeedTar</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMALATTACK1</t>
+  </si>
+  <si>
+    <t>NORMALATTACK2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMALATTACK3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMALTHUMP</t>
   </si>
 </sst>
 </file>
@@ -197,7 +195,11 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -247,7 +249,7 @@
     <tableColumn id="2" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="NextLevelID" name="NextLevelID">
+    <tableColumn id="3" uniqueName="NextLevelID" name="NextLevelID" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@NextLevelID" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="NeedMoney" name="NeedMoney">
@@ -532,7 +534,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I9"/>
+      <selection activeCell="C6" activeCellId="1" sqref="C2:C5 C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -570,24 +572,24 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -610,13 +612,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -639,13 +641,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -668,13 +670,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -697,13 +699,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D6">
         <v>300</v>
@@ -715,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -726,13 +728,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D7">
         <v>300</v>
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -755,13 +757,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D8">
         <v>300</v>
@@ -773,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -784,13 +786,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D9">
         <v>300</v>
@@ -802,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H9">
         <v>1</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" activeCellId="1" sqref="C2:C5 C6:C9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -604,7 +604,7 @@
         <v>60</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>61</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -661,8 +661,8 @@
       <c r="G4">
         <v>62</v>
       </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="H4" s="4">
+        <v>3</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -690,8 +690,8 @@
       <c r="G5">
         <v>63</v>
       </c>
-      <c r="H5">
-        <v>1</v>
+      <c r="H5" s="4">
+        <v>3</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -719,8 +719,8 @@
       <c r="G6">
         <v>101</v>
       </c>
-      <c r="H6">
-        <v>1</v>
+      <c r="H6" s="4">
+        <v>3</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -748,8 +748,8 @@
       <c r="G7">
         <v>102</v>
       </c>
-      <c r="H7">
-        <v>1</v>
+      <c r="H7" s="4">
+        <v>3</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -777,8 +777,8 @@
       <c r="G8">
         <v>103</v>
       </c>
-      <c r="H8">
-        <v>1</v>
+      <c r="H8" s="4">
+        <v>3</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -806,8 +806,8 @@
       <c r="G9">
         <v>104</v>
       </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="H9" s="4">
+        <v>3</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -1,126 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Skill" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NextLevelID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedMoney</t>
+  </si>
+  <si>
+    <t>NeedLevel</t>
+  </si>
+  <si>
+    <t>SkillType</t>
+  </si>
+  <si>
+    <t>AnimaState</t>
+  </si>
+  <si>
+    <t>AtkDis</t>
+  </si>
+  <si>
+    <t>NeedTar</t>
+  </si>
+  <si>
+    <t>DefaultHitTime</t>
+  </si>
+  <si>
+    <t>ShowName</t>
+  </si>
+  <si>
+    <t>NORMALATTACK1</t>
   </si>
   <si>
     <t>skill1</t>
   </si>
   <si>
-    <t>NeedMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimaState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkDis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedTar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>NORMALATTACK2</t>
+  </si>
+  <si>
+    <t>NORMALATTACK3</t>
+  </si>
+  <si>
+    <t>NORMALTHUMP</t>
   </si>
   <si>
     <t>SKILL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SKILL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SKILL3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SKILL4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMALATTACK1</t>
-  </si>
-  <si>
-    <t>NORMALATTACK2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMALATTACK3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMALTHUMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -132,8 +117,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="27"/>
       </patternFill>
     </fill>
   </fills>
@@ -146,32 +131,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="44"/>
+      </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="44"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="44"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -182,94 +182,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
-<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="XML">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Object" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute name="ID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="Name" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="NextLevelID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="NeedMoney" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="NeedLevel" form="unqualified" type="xsd:integer"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Map ID="1" Name="XML_映射" RootElement="XML" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
-  </Map>
-</MapInfo>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:J3"/>
-  <tableColumns count="10">
-    <tableColumn id="1" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@Name" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="NextLevelID" name="NextLevelID" dataDxfId="0">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@NextLevelID" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="NeedMoney" name="NeedMoney">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@NeedMoney" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="NeedLevel" name="NeedLevel">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@NeedLevel" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="6" name="SkillType"/>
-    <tableColumn id="7" uniqueName="7" name="AnimaState"/>
-    <tableColumn id="8" uniqueName="8" name="AtkDis"/>
-    <tableColumn id="10" uniqueName="10" name="NeedTar"/>
-    <tableColumn id="9" uniqueName="9" name="ShowName"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -279,106 +214,106 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,166 +325,234 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,36 +563,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -609,16 +615,19 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -638,16 +647,19 @@
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -655,7 +667,7 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4">
@@ -664,19 +676,22 @@
       <c r="H4" s="4">
         <v>3</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -684,7 +699,7 @@
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5">
@@ -696,16 +711,19 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>300</v>
@@ -713,7 +731,7 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6">
@@ -722,19 +740,22 @@
       <c r="H6" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>300</v>
@@ -742,7 +763,7 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7">
@@ -754,16 +775,19 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
+      <c r="J7">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D8">
         <v>300</v>
@@ -771,7 +795,7 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8">
@@ -780,19 +804,22 @@
       <c r="H8" s="4">
         <v>3</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>300</v>
@@ -800,7 +827,7 @@
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9">
@@ -812,13 +839,13 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
+      <c r="J9">
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Skill" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -88,14 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -103,7 +101,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -155,23 +153,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -192,14 +175,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -498,6 +486,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -530,15 +519,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -546,13 +534,11 @@
     <col min="4" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="8" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -610,7 +596,7 @@
         <v>60</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -619,7 +605,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -642,7 +628,7 @@
         <v>61</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -651,7 +637,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -673,8 +659,8 @@
       <c r="G4">
         <v>62</v>
       </c>
-      <c r="H4" s="4">
-        <v>3</v>
+      <c r="H4">
+        <v>2.5</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -683,7 +669,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -705,8 +691,8 @@
       <c r="G5">
         <v>63</v>
       </c>
-      <c r="H5" s="4">
-        <v>3</v>
+      <c r="H5">
+        <v>2.5</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -715,7 +701,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -737,8 +723,8 @@
       <c r="G6">
         <v>101</v>
       </c>
-      <c r="H6" s="4">
-        <v>3</v>
+      <c r="H6">
+        <v>2.5</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -747,7 +733,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -769,8 +755,8 @@
       <c r="G7">
         <v>102</v>
       </c>
-      <c r="H7" s="4">
-        <v>3</v>
+      <c r="H7">
+        <v>2.5</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -779,7 +765,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -801,8 +787,8 @@
       <c r="G8">
         <v>103</v>
       </c>
-      <c r="H8" s="4">
-        <v>3</v>
+      <c r="H8">
+        <v>2.5</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -811,7 +797,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -833,8 +819,8 @@
       <c r="G9">
         <v>104</v>
       </c>
-      <c r="H9" s="4">
-        <v>3</v>
+      <c r="H9">
+        <v>2.5</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -844,8 +830,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Skill" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>ID</t>
   </si>
@@ -51,6 +47,9 @@
   </si>
   <si>
     <t>AtkDis</t>
+  </si>
+  <si>
+    <t>AutoAtkDis</t>
   </si>
   <si>
     <t>NeedTar</t>
@@ -92,8 +91,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -101,7 +106,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -153,8 +158,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -175,19 +195,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -486,18 +501,17 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -519,14 +533,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I2" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -534,11 +549,13 @@
     <col min="4" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,16 +589,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -599,21 +619,24 @@
         <v>2.5</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -631,21 +654,24 @@
         <v>2.5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -662,22 +688,25 @@
       <c r="H4">
         <v>2.5</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -694,22 +723,25 @@
       <c r="H5">
         <v>2.5</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>300</v>
@@ -726,22 +758,25 @@
       <c r="H6">
         <v>2.5</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>300</v>
@@ -758,22 +793,25 @@
       <c r="H7">
         <v>2.5</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>300</v>
@@ -790,22 +828,25 @@
       <c r="H8">
         <v>2.5</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>300</v>
@@ -822,17 +863,19 @@
       <c r="H9">
         <v>2.5</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>ID</t>
   </si>
@@ -70,22 +69,49 @@
     <t>NORMALATTACK2</t>
   </si>
   <si>
+    <t>skill2</t>
+  </si>
+  <si>
     <t>NORMALATTACK3</t>
   </si>
   <si>
+    <t>skill3</t>
+  </si>
+  <si>
     <t>NORMALTHUMP</t>
   </si>
   <si>
+    <t>skill4</t>
+  </si>
+  <si>
     <t>SKILL1</t>
   </si>
   <si>
+    <t>skill5</t>
+  </si>
+  <si>
     <t>SKILL2</t>
   </si>
   <si>
+    <t>skill6</t>
+  </si>
+  <si>
     <t>SKILL3</t>
   </si>
   <si>
+    <t>skill7</t>
+  </si>
+  <si>
     <t>SKILL4</t>
+  </si>
+  <si>
+    <t>skill8</t>
+  </si>
+  <si>
+    <t>SKILL5</t>
+  </si>
+  <si>
+    <t>skill9</t>
   </si>
 </sst>
 </file>
@@ -93,12 +119,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -106,12 +132,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +301,194 @@
         <bgColor indexed="27"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -157,24 +520,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -195,14 +785,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -252,71 +886,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,10 +1169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -549,9 +1183,7 @@
     <col min="4" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="11" width="20" customWidth="1"/>
+    <col min="8" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -633,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -665,10 +1297,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -700,10 +1332,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -735,10 +1367,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -770,10 +1402,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -805,10 +1437,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -840,10 +1472,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -870,6 +1502,41 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>105</v>
+      </c>
+      <c r="H10">
+        <v>2.5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.8</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -23,21 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>NextLevelID</t>
-  </si>
-  <si>
-    <t>NeedMoney</t>
-  </si>
-  <si>
-    <t>NeedLevel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>SkillType</t>
@@ -46,19 +33,189 @@
     <t>AnimaState</t>
   </si>
   <si>
+    <t>ShowName</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>ConsumeProperty</t>
+  </si>
+  <si>
+    <t>ConsumeValue</t>
+  </si>
+  <si>
+    <t>ConsumeType</t>
+  </si>
+  <si>
+    <t>DamageProperty</t>
+  </si>
+  <si>
+    <t>DamageValue</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>GetBuffList</t>
+  </si>
+  <si>
+    <t>SendBuffList</t>
+  </si>
+  <si>
+    <t>CoolDownTime</t>
+  </si>
+  <si>
+    <t>RequireDistance</t>
+  </si>
+  <si>
+    <t>DamageDistance</t>
+  </si>
+  <si>
+    <t>TargetType</t>
+  </si>
+  <si>
+    <t>NewObject</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>UpLevel</t>
+  </si>
+  <si>
+    <t>AfterUpID</t>
+  </si>
+  <si>
+    <t>PlayerSkill</t>
+  </si>
+  <si>
     <t>AtkDis</t>
   </si>
   <si>
-    <t>AutoAtkDis</t>
-  </si>
-  <si>
     <t>NeedTar</t>
   </si>
   <si>
     <t>DefaultHitTime</t>
   </si>
   <si>
-    <t>ShowName</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>//普通0短刃类//1普通子弹类(不穿透)//2普通子弹类穿//3普通子弹类单体目标范围(每人头顶闪电那样)/3普通子弹类爆炸目标范围(火矛从天而降那样position)</t>
+  </si>
+  <si>
+    <t>技能对应的客户端动作状态</t>
+  </si>
+  <si>
+    <t>装备名字字符串索引</t>
+  </si>
+  <si>
+    <t>装备描述字符串索引</t>
+  </si>
+  <si>
+    <t>消耗属性</t>
+  </si>
+  <si>
+    <t>消耗值</t>
+  </si>
+  <si>
+    <t>消耗类型，0为绝对值，1为当前值百分比，2为最大值百分比</t>
+  </si>
+  <si>
+    <t>伤害属性</t>
+  </si>
+  <si>
+    <t>伤害值</t>
+  </si>
+  <si>
+    <t>伤害类型，0为绝对值，1为当前值百分比，2为最大值百分比</t>
+  </si>
+  <si>
+    <t>使用后获得的BUFF</t>
+  </si>
+  <si>
+    <t>使用后对方获得的BUFF</t>
+  </si>
+  <si>
+    <t>使用冷却CD</t>
+  </si>
+  <si>
+    <t>释放要求目标距离</t>
+  </si>
+  <si>
+    <t>伤害距离--群伤需要</t>
+  </si>
+  <si>
+    <t>目标类别0敌人1自己2队友</t>
+  </si>
+  <si>
+    <t>产生新的对象--召唤</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>图集</t>
+  </si>
+  <si>
+    <t>升级需要的等级</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>升级后的新技能I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <t>是否玩家技能</t>
+  </si>
+  <si>
+    <t>与目标最合适的攻击距离</t>
+  </si>
+  <si>
+    <t>是否必须有目标才能释放</t>
+  </si>
+  <si>
+    <t>缺省打击时间（本来应该打到但是物理没碰撞到或者其他原因）</t>
   </si>
   <si>
     <t>NORMALATTACK1</t>
@@ -70,22 +227,49 @@
     <t>NORMALATTACK2</t>
   </si>
   <si>
+    <t>skill2</t>
+  </si>
+  <si>
     <t>NORMALATTACK3</t>
   </si>
   <si>
+    <t>skill3</t>
+  </si>
+  <si>
     <t>NORMALTHUMP</t>
   </si>
   <si>
+    <t>skill4</t>
+  </si>
+  <si>
     <t>SKILL1</t>
   </si>
   <si>
+    <t>skill5</t>
+  </si>
+  <si>
     <t>SKILL2</t>
   </si>
   <si>
+    <t>skill6</t>
+  </si>
+  <si>
     <t>SKILL3</t>
   </si>
   <si>
+    <t>skill7</t>
+  </si>
+  <si>
     <t>SKILL4</t>
+  </si>
+  <si>
+    <t>skill8</t>
+  </si>
+  <si>
+    <t>SKILL5</t>
+  </si>
+  <si>
+    <t>skill9</t>
   </si>
 </sst>
 </file>
@@ -93,12 +277,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -106,17 +290,180 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -124,8 +471,194 @@
         <bgColor indexed="27"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -157,52 +690,329 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -252,71 +1062,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8:W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -549,327 +1359,990 @@
     <col min="4" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="11" width="20" customWidth="1"/>
+    <col min="8" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+    <row r="2" s="2" customFormat="1" spans="1:26">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:26">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:26">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:26">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:26">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:26">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>60</v>
       </c>
-      <c r="H2">
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>2.5</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>300</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+    <row r="9" spans="1:26">
+      <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>2.5</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4">
+    <row r="10" spans="1:26">
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>62</v>
       </c>
-      <c r="H4">
+      <c r="D10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>2.5</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5">
+    <row r="11" spans="1:26">
+      <c r="A11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>63</v>
       </c>
-      <c r="H5">
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>2.5</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="Y11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>300</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6">
+    <row r="12" spans="1:26">
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>101</v>
       </c>
-      <c r="H6">
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>2.5</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>300</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7">
+    <row r="13" spans="1:26">
+      <c r="A13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>102</v>
       </c>
-      <c r="H7">
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>2.5</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8">
+    <row r="14" spans="1:26">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>103</v>
       </c>
-      <c r="H8">
+      <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>2.5</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>300</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9">
+    <row r="15" spans="1:26">
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>104</v>
       </c>
-      <c r="H9">
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>2.5</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="Y15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>2.5</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>0.8</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -186,24 +186,7 @@
     <t>升级需要的等级</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>升级后的新技能I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D</t>
-    </r>
+    <t>升级后的新技能ID</t>
   </si>
   <si>
     <t>是否玩家技能</t>
@@ -277,12 +260,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -290,27 +273,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -325,16 +292,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -354,16 +336,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,17 +407,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,23 +416,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,27 +429,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -473,73 +463,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,119 +643,107 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -692,25 +772,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,36 +801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -767,6 +808,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,176 +853,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,8 +1448,8 @@
   <sheetPr/>
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8:W16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1364,167 +1465,167 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:26">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:26">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="2" t="b">
@@ -1604,7 +1705,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:26">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="2" t="b">
@@ -1684,7 +1785,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:26">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="2" t="b">
@@ -1764,7 +1865,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:26">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="2" t="b">
@@ -1843,88 +1944,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:26">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:26">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B8">
@@ -1933,7 +2034,7 @@
       <c r="C8">
         <v>60</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>60</v>
       </c>
       <c r="H8">
@@ -1971,7 +2072,7 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B9">
@@ -1980,7 +2081,7 @@
       <c r="C9">
         <v>61</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H9">
@@ -2018,16 +2119,16 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="12">
         <v>0</v>
       </c>
       <c r="C10">
         <v>62</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>64</v>
       </c>
       <c r="H10">
@@ -2057,7 +2158,7 @@
       <c r="X10">
         <v>2.5</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="12">
         <v>0</v>
       </c>
       <c r="Z10">
@@ -2065,16 +2166,16 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="12">
         <v>0</v>
       </c>
       <c r="C11">
         <v>63</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>66</v>
       </c>
       <c r="H11">
@@ -2104,7 +2205,7 @@
       <c r="X11">
         <v>2.5</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="13">
         <v>0</v>
       </c>
       <c r="Z11">
@@ -2112,16 +2213,16 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="12">
         <v>0</v>
       </c>
       <c r="C12">
         <v>101</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="10" t="s">
         <v>68</v>
       </c>
       <c r="H12">
@@ -2151,7 +2252,7 @@
       <c r="X12">
         <v>2.5</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="12">
         <v>0</v>
       </c>
       <c r="Z12">
@@ -2159,16 +2260,16 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="12">
         <v>0</v>
       </c>
       <c r="C13">
         <v>102</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>70</v>
       </c>
       <c r="H13">
@@ -2198,7 +2299,7 @@
       <c r="X13">
         <v>2.5</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="13">
         <v>0</v>
       </c>
       <c r="Z13">
@@ -2206,16 +2307,16 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="12">
         <v>0</v>
       </c>
       <c r="C14">
         <v>103</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="10" t="s">
         <v>72</v>
       </c>
       <c r="H14">
@@ -2245,7 +2346,7 @@
       <c r="X14">
         <v>2.5</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="12">
         <v>0</v>
       </c>
       <c r="Z14">
@@ -2253,16 +2354,16 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="12">
         <v>0</v>
       </c>
       <c r="C15">
         <v>104</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="10" t="s">
         <v>74</v>
       </c>
       <c r="H15">
@@ -2292,7 +2393,7 @@
       <c r="X15">
         <v>2.5</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="13">
         <v>0</v>
       </c>
       <c r="Z15">
@@ -2300,7 +2401,7 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B16">
@@ -2309,7 +2410,7 @@
       <c r="C16">
         <v>105</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>76</v>
       </c>
       <c r="H16">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>Id</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>//普通0短刃类//1普通子弹类(不穿透)//2普通子弹类穿//3普通子弹类单体目标范围(每人头顶闪电那样)/3普通子弹类爆炸目标范围(火矛从天而降那样position)</t>
@@ -260,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -280,26 +283,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -314,8 +303,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -330,7 +356,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,9 +393,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,48 +416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,17 +431,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -463,91 +466,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,98 +650,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -696,6 +699,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -729,6 +745,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -771,6 +800,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -786,28 +826,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,11 +859,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,152 +902,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1029,36 +1058,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1446,10 +1472,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1465,82 +1491,82 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:26">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1548,79 +1574,79 @@
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1944,145 +1970,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:26">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:26">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:26">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="G8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="H8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="I8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="J8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="K8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="L8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="M8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="N8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="O8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="P8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="Q8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="R8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="S8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="T8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="U8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="V8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="W8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="X8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Y8" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="10" t="s">
+      <c r="Z8" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>2.5</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>61</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2119,17 +2178,17 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>61</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>62</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2158,7 +2217,7 @@
       <c r="X10">
         <v>2.5</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
@@ -2167,16 +2226,16 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>62</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>63</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2205,7 +2264,7 @@
       <c r="X11">
         <v>2.5</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Y11" s="11">
         <v>0</v>
       </c>
       <c r="Z11">
@@ -2213,17 +2272,17 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>63</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B12" s="12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>101</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2260,17 +2319,17 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>101</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>102</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2299,7 +2358,7 @@
       <c r="X13">
         <v>2.5</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="11">
         <v>0</v>
       </c>
       <c r="Z13">
@@ -2307,17 +2366,17 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>102</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" s="12">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>103</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2354,17 +2413,17 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>104</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2393,7 +2452,7 @@
       <c r="X15">
         <v>2.5</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="Y15" s="11">
         <v>0</v>
       </c>
       <c r="Z15">
@@ -2401,17 +2460,17 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>105</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2440,14 +2499,67 @@
       <c r="X16">
         <v>2.5</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="12">
         <v>0</v>
       </c>
       <c r="Z16">
         <v>0.8</v>
       </c>
     </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>105</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>2.5</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:Z7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Skill" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -261,14 +274,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -282,164 +289,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,194 +315,8 @@
         <bgColor indexed="27"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -799,251 +464,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,58 +511,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1438,6 +819,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1470,27 +852,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:26">
+    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
@@ -1650,7 +1033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:26">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -1730,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:26">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -1810,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:26">
+    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1890,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:26">
+    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1970,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:26">
+    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
@@ -2050,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:26">
+    <row r="8" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +1513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
@@ -2177,7 +1560,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>62</v>
       </c>
@@ -2224,7 +1607,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>64</v>
       </c>
@@ -2271,7 +1654,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>66</v>
       </c>
@@ -2318,7 +1701,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>68</v>
       </c>
@@ -2365,7 +1748,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
@@ -2412,7 +1795,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>72</v>
       </c>
@@ -2459,7 +1842,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>74</v>
       </c>
@@ -2506,7 +1889,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>76</v>
       </c>
@@ -2560,7 +1943,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Skill.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>Id</t>
   </si>
@@ -269,13 +269,17 @@
   </si>
   <si>
     <t>skill9</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -286,6 +290,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -512,13 +521,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -853,27 +865,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
     <col min="8" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -953,7 +965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
@@ -1033,7 +1045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -1113,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -1193,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1273,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1353,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
@@ -1433,145 +1445,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>60</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>2.5</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>61</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1607,18 +1652,18 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1647,25 +1692,25 @@
       <c r="X11">
         <v>2.5</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>66</v>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B12" s="11">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1694,25 +1739,25 @@
       <c r="X12">
         <v>2.5</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12" s="11">
         <v>0</v>
       </c>
       <c r="Z12">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="11">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1741,25 +1786,25 @@
       <c r="X13">
         <v>2.5</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="12">
         <v>0</v>
       </c>
       <c r="Z13">
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="11">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1788,25 +1833,25 @@
       <c r="X14">
         <v>2.5</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14" s="11">
         <v>0</v>
       </c>
       <c r="Z14">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="11">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1835,25 +1880,25 @@
       <c r="X15">
         <v>2.5</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="12">
         <v>0</v>
       </c>
       <c r="Z15">
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1882,25 +1927,25 @@
       <c r="X16">
         <v>2.5</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Y16" s="11">
         <v>0</v>
       </c>
       <c r="Z16">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17">
+        <v>74</v>
+      </c>
+      <c r="B17" s="11">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1929,17 +1974,65 @@
       <c r="X17">
         <v>2.5</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="12">
         <v>0</v>
       </c>
       <c r="Z17">
         <v>0.8</v>
       </c>
     </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>105</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>2.5</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:Z7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:Z8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
